--- a/data/KPJ_data/claim_data.xlsx
+++ b/data/KPJ_data/claim_data.xlsx
@@ -8218,7 +8218,7 @@
         <v>2022</v>
       </c>
       <c r="F278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -8246,7 +8246,7 @@
         <v>2022</v>
       </c>
       <c r="F279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -8274,7 +8274,7 @@
         <v>2022</v>
       </c>
       <c r="F280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -8302,7 +8302,7 @@
         <v>2022</v>
       </c>
       <c r="F281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -8330,7 +8330,7 @@
         <v>2022</v>
       </c>
       <c r="F282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -8358,7 +8358,7 @@
         <v>2022</v>
       </c>
       <c r="F283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -8386,7 +8386,7 @@
         <v>2022</v>
       </c>
       <c r="F284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -8414,7 +8414,7 @@
         <v>2022</v>
       </c>
       <c r="F285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -8442,7 +8442,7 @@
         <v>2022</v>
       </c>
       <c r="F286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -8470,7 +8470,7 @@
         <v>2022</v>
       </c>
       <c r="F287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -8498,7 +8498,7 @@
         <v>2022</v>
       </c>
       <c r="F288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -8526,7 +8526,7 @@
         <v>2022</v>
       </c>
       <c r="F289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -8554,7 +8554,7 @@
         <v>2022</v>
       </c>
       <c r="F290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -8582,7 +8582,7 @@
         <v>2022</v>
       </c>
       <c r="F291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -8610,7 +8610,7 @@
         <v>2022</v>
       </c>
       <c r="F292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -8638,7 +8638,7 @@
         <v>2022</v>
       </c>
       <c r="F293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -8666,7 +8666,7 @@
         <v>2022</v>
       </c>
       <c r="F294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -8694,7 +8694,7 @@
         <v>2022</v>
       </c>
       <c r="F295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -8722,7 +8722,7 @@
         <v>2022</v>
       </c>
       <c r="F296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -8750,7 +8750,7 @@
         <v>2022</v>
       </c>
       <c r="F297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -9814,7 +9814,7 @@
         <v>2022</v>
       </c>
       <c r="F335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -9842,7 +9842,7 @@
         <v>2022</v>
       </c>
       <c r="F336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -9870,7 +9870,7 @@
         <v>2022</v>
       </c>
       <c r="F337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -9898,7 +9898,7 @@
         <v>2022</v>
       </c>
       <c r="F338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -17038,7 +17038,7 @@
         <v>2022</v>
       </c>
       <c r="F593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -17066,7 +17066,7 @@
         <v>2022</v>
       </c>
       <c r="F594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -17094,7 +17094,7 @@
         <v>2022</v>
       </c>
       <c r="F595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -17122,7 +17122,7 @@
         <v>2022</v>
       </c>
       <c r="F596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -17206,7 +17206,7 @@
         <v>2022</v>
       </c>
       <c r="F599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -17234,7 +17234,7 @@
         <v>2022</v>
       </c>
       <c r="F600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -17262,7 +17262,7 @@
         <v>2022</v>
       </c>
       <c r="F601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -17290,7 +17290,7 @@
         <v>2022</v>
       </c>
       <c r="F602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -17402,7 +17402,7 @@
         <v>2022</v>
       </c>
       <c r="F606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -17430,7 +17430,7 @@
         <v>2022</v>
       </c>
       <c r="F607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -17458,7 +17458,7 @@
         <v>2022</v>
       </c>
       <c r="F608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17486,7 +17486,7 @@
         <v>2022</v>
       </c>
       <c r="F609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -17514,7 +17514,7 @@
         <v>2023</v>
       </c>
       <c r="F610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -17542,7 +17542,7 @@
         <v>2023</v>
       </c>
       <c r="F611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -17570,7 +17570,7 @@
         <v>2023</v>
       </c>
       <c r="F612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -17654,7 +17654,7 @@
         <v>2023</v>
       </c>
       <c r="F615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -17682,7 +17682,7 @@
         <v>2023</v>
       </c>
       <c r="F616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -17710,7 +17710,7 @@
         <v>2023</v>
       </c>
       <c r="F617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -17738,7 +17738,7 @@
         <v>2023</v>
       </c>
       <c r="F618" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -17794,7 +17794,7 @@
         <v>2023</v>
       </c>
       <c r="F620" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -18270,7 +18270,7 @@
         <v>2023</v>
       </c>
       <c r="F637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -18354,7 +18354,7 @@
         <v>2023</v>
       </c>
       <c r="F640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -18382,7 +18382,7 @@
         <v>2023</v>
       </c>
       <c r="F641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -18410,7 +18410,7 @@
         <v>2023</v>
       </c>
       <c r="F642" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -19166,7 +19166,7 @@
         <v>2023</v>
       </c>
       <c r="F669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -19194,7 +19194,7 @@
         <v>2023</v>
       </c>
       <c r="F670" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -19306,7 +19306,7 @@
         <v>2023</v>
       </c>
       <c r="F674" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -19446,7 +19446,7 @@
         <v>2023</v>
       </c>
       <c r="F679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -19502,7 +19502,7 @@
         <v>2023</v>
       </c>
       <c r="F681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -19558,7 +19558,7 @@
         <v>2023</v>
       </c>
       <c r="F683" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -19586,7 +19586,7 @@
         <v>2023</v>
       </c>
       <c r="F684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -19614,7 +19614,7 @@
         <v>2023</v>
       </c>
       <c r="F685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -19670,7 +19670,7 @@
         <v>2023</v>
       </c>
       <c r="F687" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -19698,7 +19698,7 @@
         <v>2023</v>
       </c>
       <c r="F688" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -19754,7 +19754,7 @@
         <v>2023</v>
       </c>
       <c r="F690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -19810,7 +19810,7 @@
         <v>2023</v>
       </c>
       <c r="F692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -19894,7 +19894,7 @@
         <v>2023</v>
       </c>
       <c r="F695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -20034,7 +20034,7 @@
         <v>2023</v>
       </c>
       <c r="F700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -20174,7 +20174,7 @@
         <v>2023</v>
       </c>
       <c r="F705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -20258,7 +20258,7 @@
         <v>2023</v>
       </c>
       <c r="F708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -20286,7 +20286,7 @@
         <v>2023</v>
       </c>
       <c r="F709" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -27088,7 +27088,7 @@
         <v>2023</v>
       </c>
       <c r="F952" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -27116,7 +27116,7 @@
         <v>2023</v>
       </c>
       <c r="F953" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -27172,7 +27172,7 @@
         <v>2023</v>
       </c>
       <c r="F955" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -27200,7 +27200,7 @@
         <v>2023</v>
       </c>
       <c r="F956" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957">
@@ -27312,7 +27312,7 @@
         <v>2023</v>
       </c>
       <c r="F960" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961">
@@ -27340,7 +27340,7 @@
         <v>2023</v>
       </c>
       <c r="F961" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962">
@@ -27396,7 +27396,7 @@
         <v>2023</v>
       </c>
       <c r="F963" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964">
@@ -27424,7 +27424,7 @@
         <v>2023</v>
       </c>
       <c r="F964" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -27480,7 +27480,7 @@
         <v>2023</v>
       </c>
       <c r="F966" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -27508,7 +27508,7 @@
         <v>2023</v>
       </c>
       <c r="F967" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -27536,7 +27536,7 @@
         <v>2023</v>
       </c>
       <c r="F968" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969">
@@ -27592,7 +27592,7 @@
         <v>2023</v>
       </c>
       <c r="F970" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971">
@@ -27620,7 +27620,7 @@
         <v>2023</v>
       </c>
       <c r="F971" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -27872,7 +27872,7 @@
         <v>2023</v>
       </c>
       <c r="F980" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981">

--- a/data/KPJ_data/claim_data.xlsx
+++ b/data/KPJ_data/claim_data.xlsx
@@ -20342,7 +20342,7 @@
         <v>2023</v>
       </c>
       <c r="F711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -20370,7 +20370,7 @@
         <v>2023</v>
       </c>
       <c r="F712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -20398,7 +20398,7 @@
         <v>2023</v>
       </c>
       <c r="F713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -20426,7 +20426,7 @@
         <v>2023</v>
       </c>
       <c r="F714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -20482,7 +20482,7 @@
         <v>2023</v>
       </c>
       <c r="F716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -20566,7 +20566,7 @@
         <v>2023</v>
       </c>
       <c r="F719" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -20594,7 +20594,7 @@
         <v>2023</v>
       </c>
       <c r="F720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -20622,7 +20622,7 @@
         <v>2023</v>
       </c>
       <c r="F721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -20650,7 +20650,7 @@
         <v>2023</v>
       </c>
       <c r="F722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -20678,7 +20678,7 @@
         <v>2023</v>
       </c>
       <c r="F723" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -20762,7 +20762,7 @@
         <v>2023</v>
       </c>
       <c r="F726" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -20818,7 +20818,7 @@
         <v>2023</v>
       </c>
       <c r="F728" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -20874,7 +20874,7 @@
         <v>2023</v>
       </c>
       <c r="F730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -20902,7 +20902,7 @@
         <v>2023</v>
       </c>
       <c r="F731" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -20930,7 +20930,7 @@
         <v>2023</v>
       </c>
       <c r="F732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -21014,7 +21014,7 @@
         <v>2023</v>
       </c>
       <c r="F735" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -21042,7 +21042,7 @@
         <v>2023</v>
       </c>
       <c r="F736" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -21070,7 +21070,7 @@
         <v>2023</v>
       </c>
       <c r="F737" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -21238,7 +21238,7 @@
         <v>2023</v>
       </c>
       <c r="F743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -21294,7 +21294,7 @@
         <v>2023</v>
       </c>
       <c r="F745" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -21322,7 +21322,7 @@
         <v>2023</v>
       </c>
       <c r="F746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747">
@@ -21378,7 +21378,7 @@
         <v>2023</v>
       </c>
       <c r="F748" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -21462,7 +21462,7 @@
         <v>2023</v>
       </c>
       <c r="F751" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -21490,7 +21490,7 @@
         <v>2023</v>
       </c>
       <c r="F752" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -21518,7 +21518,7 @@
         <v>2023</v>
       </c>
       <c r="F753" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -21714,7 +21714,7 @@
         <v>2023</v>
       </c>
       <c r="F760" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -21882,7 +21882,7 @@
         <v>2023</v>
       </c>
       <c r="F766" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -21994,7 +21994,7 @@
         <v>2023</v>
       </c>
       <c r="F770" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
@@ -22050,7 +22050,7 @@
         <v>2023</v>
       </c>
       <c r="F772" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -22078,7 +22078,7 @@
         <v>2023</v>
       </c>
       <c r="F773" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -22106,7 +22106,7 @@
         <v>2023</v>
       </c>
       <c r="F774" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -22218,7 +22218,7 @@
         <v>2023</v>
       </c>
       <c r="F778" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -22246,7 +22246,7 @@
         <v>2023</v>
       </c>
       <c r="F779" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -22330,7 +22330,7 @@
         <v>2023</v>
       </c>
       <c r="F782" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -22358,7 +22358,7 @@
         <v>2023</v>
       </c>
       <c r="F783" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -22386,7 +22386,7 @@
         <v>2023</v>
       </c>
       <c r="F784" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -22414,7 +22414,7 @@
         <v>2023</v>
       </c>
       <c r="F785" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -22442,7 +22442,7 @@
         <v>2023</v>
       </c>
       <c r="F786" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -22470,7 +22470,7 @@
         <v>2023</v>
       </c>
       <c r="F787" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -22498,7 +22498,7 @@
         <v>2023</v>
       </c>
       <c r="F788" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -22526,7 +22526,7 @@
         <v>2023</v>
       </c>
       <c r="F789" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -22666,7 +22666,7 @@
         <v>2023</v>
       </c>
       <c r="F794" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -22722,7 +22722,7 @@
         <v>2023</v>
       </c>
       <c r="F796" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -22778,7 +22778,7 @@
         <v>2023</v>
       </c>
       <c r="F798" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -22834,7 +22834,7 @@
         <v>2023</v>
       </c>
       <c r="F800" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -25130,7 +25130,7 @@
         <v>2023</v>
       </c>
       <c r="F882" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -25214,7 +25214,7 @@
         <v>2023</v>
       </c>
       <c r="F885" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -25270,7 +25270,7 @@
         <v>2023</v>
       </c>
       <c r="F887" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -25410,7 +25410,7 @@
         <v>2023</v>
       </c>
       <c r="F892" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">

--- a/data/KPJ_data/claim_data.xlsx
+++ b/data/KPJ_data/claim_data.xlsx
@@ -16870,7 +16870,7 @@
         <v>2022</v>
       </c>
       <c r="F587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -16954,7 +16954,7 @@
         <v>2022</v>
       </c>
       <c r="F590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -17346,7 +17346,7 @@
         <v>2022</v>
       </c>
       <c r="F604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -17374,7 +17374,7 @@
         <v>2022</v>
       </c>
       <c r="F605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -17878,7 +17878,7 @@
         <v>2023</v>
       </c>
       <c r="F623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -18074,7 +18074,7 @@
         <v>2023</v>
       </c>
       <c r="F630" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -18158,7 +18158,7 @@
         <v>2023</v>
       </c>
       <c r="F633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -18186,7 +18186,7 @@
         <v>2023</v>
       </c>
       <c r="F634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -18242,7 +18242,7 @@
         <v>2023</v>
       </c>
       <c r="F636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -18746,7 +18746,7 @@
         <v>2023</v>
       </c>
       <c r="F654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -18774,7 +18774,7 @@
         <v>2023</v>
       </c>
       <c r="F655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -18802,7 +18802,7 @@
         <v>2023</v>
       </c>
       <c r="F656" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -18830,7 +18830,7 @@
         <v>2023</v>
       </c>
       <c r="F657" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -18858,7 +18858,7 @@
         <v>2023</v>
       </c>
       <c r="F658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -18886,7 +18886,7 @@
         <v>2023</v>
       </c>
       <c r="F659" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -18914,7 +18914,7 @@
         <v>2023</v>
       </c>
       <c r="F660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -18942,7 +18942,7 @@
         <v>2023</v>
       </c>
       <c r="F661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -18970,7 +18970,7 @@
         <v>2023</v>
       </c>
       <c r="F662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -18998,7 +18998,7 @@
         <v>2023</v>
       </c>
       <c r="F663" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -19026,7 +19026,7 @@
         <v>2023</v>
       </c>
       <c r="F664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -19054,7 +19054,7 @@
         <v>2023</v>
       </c>
       <c r="F665" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -19082,7 +19082,7 @@
         <v>2023</v>
       </c>
       <c r="F666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -19110,7 +19110,7 @@
         <v>2023</v>
       </c>
       <c r="F667" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -19138,7 +19138,7 @@
         <v>2023</v>
       </c>
       <c r="F668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -22974,7 +22974,7 @@
         <v>2023</v>
       </c>
       <c r="F805" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -23030,7 +23030,7 @@
         <v>2023</v>
       </c>
       <c r="F807" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
@@ -23142,7 +23142,7 @@
         <v>2023</v>
       </c>
       <c r="F811" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -23226,7 +23226,7 @@
         <v>2023</v>
       </c>
       <c r="F814" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
@@ -23254,7 +23254,7 @@
         <v>2023</v>
       </c>
       <c r="F815" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -23282,7 +23282,7 @@
         <v>2023</v>
       </c>
       <c r="F816" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -23394,7 +23394,7 @@
         <v>2023</v>
       </c>
       <c r="F820" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -23450,7 +23450,7 @@
         <v>2023</v>
       </c>
       <c r="F822" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -23562,7 +23562,7 @@
         <v>2023</v>
       </c>
       <c r="F826" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -23618,7 +23618,7 @@
         <v>2023</v>
       </c>
       <c r="F828" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -23646,7 +23646,7 @@
         <v>2023</v>
       </c>
       <c r="F829" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -23702,7 +23702,7 @@
         <v>2023</v>
       </c>
       <c r="F831" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -23730,7 +23730,7 @@
         <v>2023</v>
       </c>
       <c r="F832" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -23814,7 +23814,7 @@
         <v>2023</v>
       </c>
       <c r="F835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -23842,7 +23842,7 @@
         <v>2023</v>
       </c>
       <c r="F836" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837">
@@ -23926,7 +23926,7 @@
         <v>2023</v>
       </c>
       <c r="F839" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -24010,7 +24010,7 @@
         <v>2023</v>
       </c>
       <c r="F842" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -24122,7 +24122,7 @@
         <v>2023</v>
       </c>
       <c r="F846" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -24178,7 +24178,7 @@
         <v>2023</v>
       </c>
       <c r="F848" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849">
@@ -24206,7 +24206,7 @@
         <v>2023</v>
       </c>
       <c r="F849" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850">
@@ -24234,7 +24234,7 @@
         <v>2023</v>
       </c>
       <c r="F850" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -24290,7 +24290,7 @@
         <v>2023</v>
       </c>
       <c r="F852" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -24318,7 +24318,7 @@
         <v>2023</v>
       </c>
       <c r="F853" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -24374,7 +24374,7 @@
         <v>2023</v>
       </c>
       <c r="F855" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -24430,7 +24430,7 @@
         <v>2023</v>
       </c>
       <c r="F857" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -24710,7 +24710,7 @@
         <v>2023</v>
       </c>
       <c r="F867" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -24738,7 +24738,7 @@
         <v>2023</v>
       </c>
       <c r="F868" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869">
@@ -24766,7 +24766,7 @@
         <v>2023</v>
       </c>
       <c r="F869" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870">
@@ -24794,7 +24794,7 @@
         <v>2023</v>
       </c>
       <c r="F870" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -24822,7 +24822,7 @@
         <v>2023</v>
       </c>
       <c r="F871" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -24962,7 +24962,7 @@
         <v>2023</v>
       </c>
       <c r="F876" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877">
@@ -25522,7 +25522,7 @@
         <v>2023</v>
       </c>
       <c r="F896" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -25550,7 +25550,7 @@
         <v>2023</v>
       </c>
       <c r="F897" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -25578,7 +25578,7 @@
         <v>2023</v>
       </c>
       <c r="F898" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -25606,7 +25606,7 @@
         <v>2023</v>
       </c>
       <c r="F899" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -25634,7 +25634,7 @@
         <v>2023</v>
       </c>
       <c r="F900" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -25746,7 +25746,7 @@
         <v>2023</v>
       </c>
       <c r="F904" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -25774,7 +25774,7 @@
         <v>2023</v>
       </c>
       <c r="F905" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -25802,7 +25802,7 @@
         <v>2023</v>
       </c>
       <c r="F906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -25886,7 +25886,7 @@
         <v>2023</v>
       </c>
       <c r="F909" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -25914,7 +25914,7 @@
         <v>2023</v>
       </c>
       <c r="F910" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -25942,7 +25942,7 @@
         <v>2023</v>
       </c>
       <c r="F911" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -25970,7 +25970,7 @@
         <v>2023</v>
       </c>
       <c r="F912" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -25998,7 +25998,7 @@
         <v>2023</v>
       </c>
       <c r="F913" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914">
@@ -26026,7 +26026,7 @@
         <v>2023</v>
       </c>
       <c r="F914" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
@@ -26080,7 +26080,7 @@
         <v>2023</v>
       </c>
       <c r="F916" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917">
@@ -26108,7 +26108,7 @@
         <v>2023</v>
       </c>
       <c r="F917" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -26136,7 +26136,7 @@
         <v>2023</v>
       </c>
       <c r="F918" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -26164,7 +26164,7 @@
         <v>2023</v>
       </c>
       <c r="F919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -26220,7 +26220,7 @@
         <v>2023</v>
       </c>
       <c r="F921" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -26248,7 +26248,7 @@
         <v>2023</v>
       </c>
       <c r="F922" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923">
@@ -26360,7 +26360,7 @@
         <v>2023</v>
       </c>
       <c r="F926" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -26416,7 +26416,7 @@
         <v>2023</v>
       </c>
       <c r="F928" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -26472,7 +26472,7 @@
         <v>2023</v>
       </c>
       <c r="F930" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931">
@@ -26528,7 +26528,7 @@
         <v>2023</v>
       </c>
       <c r="F932" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -26584,7 +26584,7 @@
         <v>2023</v>
       </c>
       <c r="F934" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -26612,7 +26612,7 @@
         <v>2023</v>
       </c>
       <c r="F935" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -26696,7 +26696,7 @@
         <v>2023</v>
       </c>
       <c r="F938" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -26724,7 +26724,7 @@
         <v>2023</v>
       </c>
       <c r="F939" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -26752,7 +26752,7 @@
         <v>2023</v>
       </c>
       <c r="F940" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -26780,7 +26780,7 @@
         <v>2023</v>
       </c>
       <c r="F941" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -26920,7 +26920,7 @@
         <v>2023</v>
       </c>
       <c r="F946" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947">
@@ -26948,7 +26948,7 @@
         <v>2023</v>
       </c>
       <c r="F947" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948">

--- a/data/KPJ_data/claim_data.xlsx
+++ b/data/KPJ_data/claim_data.xlsx
@@ -11466,7 +11466,7 @@
         <v>2022</v>
       </c>
       <c r="F394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -11522,7 +11522,7 @@
         <v>2022</v>
       </c>
       <c r="F396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -11550,7 +11550,7 @@
         <v>2022</v>
       </c>
       <c r="F397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -11942,7 +11942,7 @@
         <v>2022</v>
       </c>
       <c r="F411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -12082,7 +12082,7 @@
         <v>2022</v>
       </c>
       <c r="F416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -12222,7 +12222,7 @@
         <v>2022</v>
       </c>
       <c r="F421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -12390,7 +12390,7 @@
         <v>2022</v>
       </c>
       <c r="F427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -12418,7 +12418,7 @@
         <v>2022</v>
       </c>
       <c r="F428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -12446,7 +12446,7 @@
         <v>2022</v>
       </c>
       <c r="F429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -12474,7 +12474,7 @@
         <v>2022</v>
       </c>
       <c r="F430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -12502,7 +12502,7 @@
         <v>2022</v>
       </c>
       <c r="F431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -12642,7 +12642,7 @@
         <v>2022</v>
       </c>
       <c r="F436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -12670,7 +12670,7 @@
         <v>2022</v>
       </c>
       <c r="F437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -12726,7 +12726,7 @@
         <v>2022</v>
       </c>
       <c r="F439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -12754,7 +12754,7 @@
         <v>2022</v>
       </c>
       <c r="F440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -12782,7 +12782,7 @@
         <v>2022</v>
       </c>
       <c r="F441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -12810,7 +12810,7 @@
         <v>2022</v>
       </c>
       <c r="F442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -12894,7 +12894,7 @@
         <v>2022</v>
       </c>
       <c r="F445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -12950,7 +12950,7 @@
         <v>2022</v>
       </c>
       <c r="F447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -12978,7 +12978,7 @@
         <v>2022</v>
       </c>
       <c r="F448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -13006,7 +13006,7 @@
         <v>2022</v>
       </c>
       <c r="F449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -13062,7 +13062,7 @@
         <v>2022</v>
       </c>
       <c r="F451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -13090,7 +13090,7 @@
         <v>2022</v>
       </c>
       <c r="F452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -13118,7 +13118,7 @@
         <v>2022</v>
       </c>
       <c r="F453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -13146,7 +13146,7 @@
         <v>2022</v>
       </c>
       <c r="F454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -13202,7 +13202,7 @@
         <v>2022</v>
       </c>
       <c r="F456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -13286,7 +13286,7 @@
         <v>2022</v>
       </c>
       <c r="F459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -13314,7 +13314,7 @@
         <v>2022</v>
       </c>
       <c r="F460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -13342,7 +13342,7 @@
         <v>2022</v>
       </c>
       <c r="F461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -13566,7 +13566,7 @@
         <v>2022</v>
       </c>
       <c r="F469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -13594,7 +13594,7 @@
         <v>2022</v>
       </c>
       <c r="F470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -13622,7 +13622,7 @@
         <v>2022</v>
       </c>
       <c r="F471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -13650,7 +13650,7 @@
         <v>2022</v>
       </c>
       <c r="F472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -13706,7 +13706,7 @@
         <v>2022</v>
       </c>
       <c r="F474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -14546,7 +14546,7 @@
         <v>2022</v>
       </c>
       <c r="F504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -14602,7 +14602,7 @@
         <v>2022</v>
       </c>
       <c r="F506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -14658,7 +14658,7 @@
         <v>2022</v>
       </c>
       <c r="F508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -14686,7 +14686,7 @@
         <v>2022</v>
       </c>
       <c r="F509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -14826,7 +14826,7 @@
         <v>2022</v>
       </c>
       <c r="F514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -14854,7 +14854,7 @@
         <v>2022</v>
       </c>
       <c r="F515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -14966,7 +14966,7 @@
         <v>2022</v>
       </c>
       <c r="F519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -15050,7 +15050,7 @@
         <v>2022</v>
       </c>
       <c r="F522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -15190,7 +15190,7 @@
         <v>2022</v>
       </c>
       <c r="F527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -15218,7 +15218,7 @@
         <v>2022</v>
       </c>
       <c r="F528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -15246,7 +15246,7 @@
         <v>2022</v>
       </c>
       <c r="F529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -15330,7 +15330,7 @@
         <v>2022</v>
       </c>
       <c r="F532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -15358,7 +15358,7 @@
         <v>2022</v>
       </c>
       <c r="F533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -15442,7 +15442,7 @@
         <v>2022</v>
       </c>
       <c r="F536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -15610,7 +15610,7 @@
         <v>2022</v>
       </c>
       <c r="F542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -15638,7 +15638,7 @@
         <v>2022</v>
       </c>
       <c r="F543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -15694,7 +15694,7 @@
         <v>2022</v>
       </c>
       <c r="F545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -15750,7 +15750,7 @@
         <v>2022</v>
       </c>
       <c r="F547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -15778,7 +15778,7 @@
         <v>2022</v>
       </c>
       <c r="F548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -15806,7 +15806,7 @@
         <v>2022</v>
       </c>
       <c r="F549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -15834,7 +15834,7 @@
         <v>2022</v>
       </c>
       <c r="F550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -15862,7 +15862,7 @@
         <v>2022</v>
       </c>
       <c r="F551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -15918,7 +15918,7 @@
         <v>2022</v>
       </c>
       <c r="F553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -15946,7 +15946,7 @@
         <v>2022</v>
       </c>
       <c r="F554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -16002,7 +16002,7 @@
         <v>2022</v>
       </c>
       <c r="F556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -16030,7 +16030,7 @@
         <v>2022</v>
       </c>
       <c r="F557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -16198,7 +16198,7 @@
         <v>2022</v>
       </c>
       <c r="F563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -16226,7 +16226,7 @@
         <v>2022</v>
       </c>
       <c r="F564" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -16282,7 +16282,7 @@
         <v>2022</v>
       </c>
       <c r="F566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -16310,7 +16310,7 @@
         <v>2022</v>
       </c>
       <c r="F567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -16534,7 +16534,7 @@
         <v>2022</v>
       </c>
       <c r="F575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -16590,7 +16590,7 @@
         <v>2022</v>
       </c>
       <c r="F577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -16646,7 +16646,7 @@
         <v>2022</v>
       </c>
       <c r="F579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -16702,7 +16702,7 @@
         <v>2022</v>
       </c>
       <c r="F581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -18438,7 +18438,7 @@
         <v>2023</v>
       </c>
       <c r="F643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -18466,7 +18466,7 @@
         <v>2023</v>
       </c>
       <c r="F644" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -18494,7 +18494,7 @@
         <v>2023</v>
       </c>
       <c r="F645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -18522,7 +18522,7 @@
         <v>2023</v>
       </c>
       <c r="F646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">

--- a/data/KPJ_data/claim_data.xlsx
+++ b/data/KPJ_data/claim_data.xlsx
@@ -11578,7 +11578,7 @@
         <v>2022</v>
       </c>
       <c r="F398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -18550,7 +18550,7 @@
         <v>2023</v>
       </c>
       <c r="F647" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -18578,7 +18578,7 @@
         <v>2023</v>
       </c>
       <c r="F648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -18606,7 +18606,7 @@
         <v>2023</v>
       </c>
       <c r="F649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -18634,7 +18634,7 @@
         <v>2023</v>
       </c>
       <c r="F650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -18662,7 +18662,7 @@
         <v>2023</v>
       </c>
       <c r="F651" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -18690,7 +18690,7 @@
         <v>2023</v>
       </c>
       <c r="F652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -18718,7 +18718,7 @@
         <v>2023</v>
       </c>
       <c r="F653" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
